--- a/data/kiv/data.xlsx
+++ b/data/kiv/data.xlsx
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="423">
   <si>
     <t>doi</t>
   </si>
   <si>
-    <t>autor</t>
-  </si>
-  <si>
     <t>pocet_citaci</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>10.1093/JIGPAL/JZI039</t>
   </si>
   <si>
-    <t>madostal</t>
-  </si>
-  <si>
     <t>10.1007/978-3-642-22098-2_26</t>
   </si>
   <si>
@@ -1173,13 +1167,148 @@
   </si>
   <si>
     <t>besoft</t>
+  </si>
+  <si>
+    <t>autori</t>
+  </si>
+  <si>
+    <t>Martin Dostál</t>
+  </si>
+  <si>
+    <t>instituce</t>
+  </si>
+  <si>
+    <t>Dept. Computer Science, Palacký University Olomouc, Czech Republic</t>
+  </si>
+  <si>
+    <t>Přemysl Brada</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Stanislav Racek, P. Grilinger</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Lukas Valenta</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Jaroslav Bauml</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Kaiml Jažek, Petr Štěpán</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; School of Computer Science, The University of Manchester Manchester M139PL, United Kingdom</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Jaroslav Šnajberk</t>
+  </si>
+  <si>
+    <t>Pavel Herout, Premek Brada, Jaroslav Snajberk, Richard Lipka, Tomas Potuzak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premek Brada, Kamil Ježek </t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holy</t>
+  </si>
+  <si>
+    <t>Pavel Herout, Premek Brada, Richard Lipka, Tomas Potuzak</t>
+  </si>
+  <si>
+    <t>Premek Brada, Kamil Ježek , Lukas Holy, Jaroslav Snajberk</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holy, Jaroslav Snajberk</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holý, Kamil Ježek</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holý, Jaroslav Snajberk</t>
+  </si>
+  <si>
+    <t>Premek Brada, Jaroslav Snajberk, Kamil Ježek</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holý, Kamil Ježek, Antonin Slezacek</t>
+  </si>
+  <si>
+    <t>Premek Brada, Kamil Ježek, Jens Dietrich</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; School of Engineering and Advanced Technology, Massey University, Palmerston North, New Zealand</t>
+  </si>
+  <si>
+    <t>Premek Brada, Kamil Ježek</t>
+  </si>
+  <si>
+    <t>Premek Brada, Richard Lipka, Tomá Potuák, Petr Hnetynka, Jirí Vinárek</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; Department of Distributed and Dependable Systems, Charles Univerity in Prague Faculty of Mathematics and Physics</t>
+  </si>
+  <si>
+    <t>Pavel Herout, Premek Brada</t>
+  </si>
+  <si>
+    <t>Premek Brada, Petr Pícha</t>
+  </si>
+  <si>
+    <t>Premek Brada, Jakub Daněk</t>
+  </si>
+  <si>
+    <t>Premek Brada, Kamil Ježek, Jens Dietrich, David J. Pearce</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; School of Engineering and Advanced Technology, Massey University, Palmerston North, New Zealand; School of Engineering and Computer Science Victoria University of Wellington, Wellington, New Zealand</t>
+  </si>
+  <si>
+    <t>Premek Brada, Petr Pícha, Ralf Ramsauer, Wolfgang Mauerer</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; Laboratory for Digitalisation OTH Regensburg</t>
+  </si>
+  <si>
+    <t>Premek Brada, Petr Pícha, Lukáš Holý, Richard Lipka</t>
+  </si>
+  <si>
+    <t>Premek Brada, Sangita De, Michael Niklas, Jürgen Mottok</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; Corporate System &amp; Technology SW, Continental Automotive GmbH, Regensburg, Germany, Department of Computer Science and Engineering, Universitsy of West Bohemia, Pilsen and Czech Republic; Corporate System &amp; Technology SW, Continental Automotive GmbH, Regensburg and Germany; Department of Electrical Engineering &amp; Information Technology, OTH, Regensburg and Germany</t>
+  </si>
+  <si>
+    <t>Premek Brada, Zdeněk Valeš</t>
+  </si>
+  <si>
+    <t>Premek Brada, Richard Lipka, Tomáš Potužák</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukas Holý, Kamil Ježek, Richard Lipka</t>
+  </si>
+  <si>
+    <t>Premek Brada, Sangita De, Michael Niklas, Rooney Brian, Juergen Mottok</t>
+  </si>
+  <si>
+    <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; Continental AG, Regensburg, 93055, Germany; Dept. of Electrical Engineering and Information Technology, OTH, Regensburg, 93053, Germany</t>
+  </si>
+  <si>
+    <t>Premek Brada, Petr Pícha, Lenka Simeckova</t>
+  </si>
+  <si>
+    <t>Premek Brada, Lukáš Černý, Michal Kepka</t>
+  </si>
+  <si>
+    <t>Premek Brada, Sangita De, Juergen Mottok, Michael Niklas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,6 +1457,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1675,8 +1812,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Zvýraznění1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1730,6 +1868,537 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pocet_citaci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$E$2:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$2:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="166524800"/>
+        <c:axId val="166523264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="166524800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166523264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166523264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166524800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8313420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2023,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,2891 +2705,4510 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="200.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>410</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>408</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>406</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>412</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>413</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>418</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>420</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>421</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>422</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="F62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>78</v>
       </c>
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="B72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>83</v>
       </c>
-      <c r="B75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="F77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>85</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="F78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="B101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="B105" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="B106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="F107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>117</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>119</v>
       </c>
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>120</v>
       </c>
-      <c r="B109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>121</v>
       </c>
-      <c r="B110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>122</v>
       </c>
-      <c r="B111" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>123</v>
       </c>
-      <c r="B112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>124</v>
       </c>
-      <c r="B113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B115" t="s">
         <v>125</v>
       </c>
-      <c r="B114" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="F115" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+      <c r="F117" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="B116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="B118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>131</v>
       </c>
-      <c r="B119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="F121" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>132</v>
       </c>
-      <c r="B120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>133</v>
       </c>
-      <c r="B121" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="F123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>134</v>
       </c>
-      <c r="B122" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="F124" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>135</v>
       </c>
-      <c r="B123" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>136</v>
-      </c>
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>137</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="F127" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>139</v>
       </c>
-      <c r="B126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+      <c r="F128" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>140</v>
       </c>
-      <c r="B127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>141</v>
       </c>
-      <c r="B128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="F130" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>142</v>
       </c>
-      <c r="B129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="F131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>143</v>
       </c>
-      <c r="B130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>144</v>
       </c>
-      <c r="B131" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>145</v>
       </c>
-      <c r="B132" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>146</v>
       </c>
-      <c r="B133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>147</v>
       </c>
-      <c r="B134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="F136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>148</v>
       </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="F137" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>149</v>
       </c>
-      <c r="B136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="F138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>150</v>
       </c>
-      <c r="B137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="F139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>151</v>
       </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>152</v>
       </c>
-      <c r="B139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B141" t="s">
+        <v>136</v>
+      </c>
+      <c r="F141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>153</v>
       </c>
-      <c r="B140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
+        <v>136</v>
+      </c>
+      <c r="F142" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>154</v>
       </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="F143" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>155</v>
       </c>
-      <c r="B142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="F144" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>156</v>
       </c>
-      <c r="B143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+      <c r="F145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>157</v>
       </c>
-      <c r="B144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="F146" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>158</v>
       </c>
-      <c r="B145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>159</v>
       </c>
-      <c r="B146" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B148" t="s">
+        <v>136</v>
+      </c>
+      <c r="F148" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>160</v>
       </c>
-      <c r="B147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>161</v>
       </c>
-      <c r="B148" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B150" t="s">
+        <v>136</v>
+      </c>
+      <c r="F150" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>162</v>
       </c>
-      <c r="B149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B151" t="s">
+        <v>136</v>
+      </c>
+      <c r="F151" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>163</v>
       </c>
-      <c r="B150" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B152" t="s">
+        <v>136</v>
+      </c>
+      <c r="F152" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>164</v>
       </c>
-      <c r="B151" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B153" t="s">
+        <v>136</v>
+      </c>
+      <c r="F153" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>165</v>
       </c>
-      <c r="B152" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B154" t="s">
+        <v>136</v>
+      </c>
+      <c r="F154" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>166</v>
       </c>
-      <c r="B153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B155" t="s">
+        <v>136</v>
+      </c>
+      <c r="F155" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>167</v>
       </c>
-      <c r="B154" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B156" t="s">
+        <v>136</v>
+      </c>
+      <c r="F156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>168</v>
       </c>
-      <c r="B155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B157" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>169</v>
       </c>
-      <c r="B156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B158" t="s">
+        <v>136</v>
+      </c>
+      <c r="F158" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>170</v>
       </c>
-      <c r="B157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B159" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>171</v>
       </c>
-      <c r="B158" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
+        <v>136</v>
+      </c>
+      <c r="F160" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>172</v>
       </c>
-      <c r="B159" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="F161" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>173</v>
       </c>
-      <c r="B160" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B162" t="s">
+        <v>136</v>
+      </c>
+      <c r="F162" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>174</v>
       </c>
-      <c r="B161" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B163" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>175</v>
       </c>
-      <c r="B162" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>176</v>
-      </c>
-      <c r="B163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>177</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
+        <v>136</v>
+      </c>
+      <c r="F165" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B166" t="s">
+        <v>136</v>
+      </c>
+      <c r="F166" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>179</v>
       </c>
-      <c r="B165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B167" t="s">
+        <v>136</v>
+      </c>
+      <c r="F167" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>180</v>
       </c>
-      <c r="B166" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B168" t="s">
+        <v>136</v>
+      </c>
+      <c r="F168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>181</v>
       </c>
-      <c r="B167" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B169" t="s">
+        <v>136</v>
+      </c>
+      <c r="F169" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>182</v>
       </c>
-      <c r="B168" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B170" t="s">
+        <v>136</v>
+      </c>
+      <c r="F170" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>183</v>
       </c>
-      <c r="B169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="B171" t="s">
+        <v>136</v>
+      </c>
+      <c r="F171" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>184</v>
       </c>
-      <c r="B170" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B172" t="s">
+        <v>136</v>
+      </c>
+      <c r="F172" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>185</v>
       </c>
-      <c r="B171" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B173" t="s">
+        <v>136</v>
+      </c>
+      <c r="F173" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>186</v>
       </c>
-      <c r="B172" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="B174" t="s">
+        <v>136</v>
+      </c>
+      <c r="F174" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>187</v>
       </c>
-      <c r="B173" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="B175" t="s">
+        <v>136</v>
+      </c>
+      <c r="F175" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>188</v>
       </c>
-      <c r="B174" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B176" t="s">
+        <v>136</v>
+      </c>
+      <c r="F176" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>189</v>
       </c>
-      <c r="B175" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B177" t="s">
+        <v>136</v>
+      </c>
+      <c r="F177" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>190</v>
       </c>
-      <c r="B176" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="B178" t="s">
+        <v>136</v>
+      </c>
+      <c r="F178" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>191</v>
       </c>
-      <c r="B177" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B179" t="s">
+        <v>136</v>
+      </c>
+      <c r="F179" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>192</v>
       </c>
-      <c r="B178" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B180" t="s">
+        <v>136</v>
+      </c>
+      <c r="F180" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>193</v>
       </c>
-      <c r="B179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="B181" t="s">
+        <v>136</v>
+      </c>
+      <c r="F181" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>194</v>
       </c>
-      <c r="B180" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B182" t="s">
+        <v>136</v>
+      </c>
+      <c r="F182" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>195</v>
       </c>
-      <c r="B181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="B183" t="s">
+        <v>136</v>
+      </c>
+      <c r="F183" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>196</v>
       </c>
-      <c r="B182" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="B184" t="s">
+        <v>136</v>
+      </c>
+      <c r="F184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>197</v>
       </c>
-      <c r="B183" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B185" t="s">
+        <v>136</v>
+      </c>
+      <c r="F185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>198</v>
       </c>
-      <c r="B184" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B186" t="s">
+        <v>136</v>
+      </c>
+      <c r="F186" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>199</v>
       </c>
-      <c r="B185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B187" t="s">
+        <v>136</v>
+      </c>
+      <c r="F187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>200</v>
       </c>
-      <c r="B186" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="B188" t="s">
+        <v>136</v>
+      </c>
+      <c r="F188" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>201</v>
       </c>
-      <c r="B187" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="B189" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>202</v>
       </c>
-      <c r="B188" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B190" t="s">
+        <v>136</v>
+      </c>
+      <c r="F190" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>203</v>
       </c>
-      <c r="B189" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="B191" t="s">
+        <v>136</v>
+      </c>
+      <c r="F191" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>204</v>
       </c>
-      <c r="B190" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="B192" t="s">
+        <v>136</v>
+      </c>
+      <c r="F192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>205</v>
       </c>
-      <c r="B191" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B193" t="s">
+        <v>136</v>
+      </c>
+      <c r="F193" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>206</v>
       </c>
-      <c r="B192" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B194" t="s">
+        <v>136</v>
+      </c>
+      <c r="F194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>207</v>
       </c>
-      <c r="B193" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B195" t="s">
+        <v>136</v>
+      </c>
+      <c r="F195" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>208</v>
       </c>
-      <c r="B194" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B196" t="s">
+        <v>136</v>
+      </c>
+      <c r="F196" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B195" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="B197" t="s">
+        <v>136</v>
+      </c>
+      <c r="F197" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>210</v>
       </c>
-      <c r="B196" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="B198" t="s">
+        <v>136</v>
+      </c>
+      <c r="F198" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>211</v>
       </c>
-      <c r="B197" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="B199" t="s">
+        <v>136</v>
+      </c>
+      <c r="F199" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>212</v>
       </c>
-      <c r="B198" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="F200" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>213</v>
       </c>
-      <c r="B199" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="B201" t="s">
+        <v>125</v>
+      </c>
+      <c r="F201" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>214</v>
       </c>
-      <c r="B200" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="B202" t="s">
         <v>215</v>
       </c>
-      <c r="B201" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="F202" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>216</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F203" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+      <c r="F204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>218</v>
       </c>
-      <c r="B203" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B205" t="s">
+        <v>215</v>
+      </c>
+      <c r="F205" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>219</v>
       </c>
-      <c r="B204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="B206" t="s">
+        <v>215</v>
+      </c>
+      <c r="F206" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>220</v>
       </c>
-      <c r="B205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="B207" t="s">
         <v>221</v>
       </c>
-      <c r="B206" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="F207" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>222</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
+        <v>221</v>
+      </c>
+      <c r="F208" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="B209" t="s">
         <v>224</v>
       </c>
-      <c r="B208" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="F209" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>225</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="B211" t="s">
+        <v>221</v>
+      </c>
+      <c r="F211" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>227</v>
       </c>
-      <c r="B210" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="F212" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>228</v>
       </c>
-      <c r="B211" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="B213" t="s">
+        <v>84</v>
+      </c>
+      <c r="F213" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>229</v>
       </c>
-      <c r="B212" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="B214" t="s">
+        <v>224</v>
+      </c>
+      <c r="F214" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>230</v>
       </c>
-      <c r="B213" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="B215" t="s">
+        <v>224</v>
+      </c>
+      <c r="F215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>231</v>
       </c>
-      <c r="B214" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="B216" t="s">
+        <v>224</v>
+      </c>
+      <c r="F216" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>232</v>
       </c>
-      <c r="B215" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="B217" t="s">
+        <v>224</v>
+      </c>
+      <c r="F217" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>233</v>
       </c>
-      <c r="B216" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="B218" t="s">
+        <v>224</v>
+      </c>
+      <c r="F218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>234</v>
       </c>
-      <c r="B217" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="F219" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>235</v>
       </c>
-      <c r="B218" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="F220" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>236</v>
       </c>
-      <c r="B219" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+      <c r="F221" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>237</v>
       </c>
-      <c r="B220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="B222" t="s">
+        <v>221</v>
+      </c>
+      <c r="F222" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>238</v>
       </c>
-      <c r="B221" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+      <c r="F223" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>239</v>
       </c>
-      <c r="B222" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="B224" t="s">
+        <v>221</v>
+      </c>
+      <c r="F224" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>240</v>
       </c>
-      <c r="B223" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="B225" t="s">
+        <v>221</v>
+      </c>
+      <c r="F225" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>241</v>
       </c>
-      <c r="B224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="B226" t="s">
+        <v>221</v>
+      </c>
+      <c r="F226" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>242</v>
       </c>
-      <c r="B225" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B227" t="s">
+        <v>221</v>
+      </c>
+      <c r="F227" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>243</v>
       </c>
-      <c r="B226" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B228" t="s">
+        <v>221</v>
+      </c>
+      <c r="F228" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>244</v>
       </c>
-      <c r="B227" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="B229" t="s">
         <v>245</v>
       </c>
-      <c r="B228" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="F229" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>246</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
+        <v>84</v>
+      </c>
+      <c r="F230" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B231" t="s">
+        <v>224</v>
+      </c>
+      <c r="F231" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>248</v>
       </c>
-      <c r="B230" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="B232" t="s">
+        <v>224</v>
+      </c>
+      <c r="F232" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>249</v>
       </c>
-      <c r="B231" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B233" t="s">
+        <v>224</v>
+      </c>
+      <c r="F233" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>250</v>
       </c>
-      <c r="B232" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="B234" t="s">
+        <v>224</v>
+      </c>
+      <c r="F234" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>251</v>
       </c>
-      <c r="B233" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="B235" t="s">
+        <v>84</v>
+      </c>
+      <c r="F235" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>252</v>
       </c>
-      <c r="B234" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="B236" t="s">
+        <v>224</v>
+      </c>
+      <c r="F236" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>253</v>
       </c>
-      <c r="B235" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B237" t="s">
+        <v>224</v>
+      </c>
+      <c r="F237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>254</v>
       </c>
-      <c r="B236" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B238" t="s">
+        <v>84</v>
+      </c>
+      <c r="F238" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>255</v>
       </c>
-      <c r="B237" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B239" t="s">
+        <v>224</v>
+      </c>
+      <c r="F239" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>256</v>
       </c>
-      <c r="B238" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="B240" t="s">
+        <v>84</v>
+      </c>
+      <c r="F240" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>257</v>
       </c>
-      <c r="B239" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="B241" t="s">
+        <v>84</v>
+      </c>
+      <c r="F241" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>258</v>
       </c>
-      <c r="B240" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B242" t="s">
+        <v>84</v>
+      </c>
+      <c r="F242" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>259</v>
       </c>
-      <c r="B241" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B243" t="s">
+        <v>84</v>
+      </c>
+      <c r="F243" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>260</v>
       </c>
-      <c r="B242" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B244" t="s">
+        <v>84</v>
+      </c>
+      <c r="F244" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>261</v>
       </c>
-      <c r="B243" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B245" t="s">
+        <v>84</v>
+      </c>
+      <c r="F245" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>262</v>
       </c>
-      <c r="B244" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B246" t="s">
+        <v>84</v>
+      </c>
+      <c r="F246" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>263</v>
       </c>
-      <c r="B245" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B247" t="s">
+        <v>84</v>
+      </c>
+      <c r="F247" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>264</v>
       </c>
-      <c r="B246" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B248" t="s">
+        <v>84</v>
+      </c>
+      <c r="F248" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>265</v>
       </c>
-      <c r="B247" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="B249" t="s">
+        <v>84</v>
+      </c>
+      <c r="F249" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>266</v>
       </c>
-      <c r="B248" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B250" t="s">
+        <v>84</v>
+      </c>
+      <c r="F250" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>267</v>
       </c>
-      <c r="B249" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B251" t="s">
+        <v>84</v>
+      </c>
+      <c r="F251" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>268</v>
       </c>
-      <c r="B250" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="B252" t="s">
+        <v>84</v>
+      </c>
+      <c r="F252" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>269</v>
       </c>
-      <c r="B251" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="B253" t="s">
+        <v>84</v>
+      </c>
+      <c r="F253" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>270</v>
       </c>
-      <c r="B252" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="B254" t="s">
+        <v>84</v>
+      </c>
+      <c r="F254" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>271</v>
       </c>
-      <c r="B253" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="B255" t="s">
+        <v>84</v>
+      </c>
+      <c r="F255" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>272</v>
       </c>
-      <c r="B254" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="B256" t="s">
+        <v>84</v>
+      </c>
+      <c r="F256" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>273</v>
       </c>
-      <c r="B255" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="B257" t="s">
+        <v>84</v>
+      </c>
+      <c r="F257" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>274</v>
       </c>
-      <c r="B256" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="B258" t="s">
+        <v>84</v>
+      </c>
+      <c r="F258" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>275</v>
       </c>
-      <c r="B257" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="B259" t="s">
+        <v>84</v>
+      </c>
+      <c r="F259" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>276</v>
       </c>
-      <c r="B258" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="B260" t="s">
+        <v>84</v>
+      </c>
+      <c r="F260" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>277</v>
       </c>
-      <c r="B259" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="B261" t="s">
+        <v>84</v>
+      </c>
+      <c r="F261" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>278</v>
       </c>
-      <c r="B260" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="B262" t="s">
+        <v>84</v>
+      </c>
+      <c r="F262" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>279</v>
       </c>
-      <c r="B261" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="B263" t="s">
+        <v>84</v>
+      </c>
+      <c r="F263" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>280</v>
       </c>
-      <c r="B262" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="B264" t="s">
+        <v>84</v>
+      </c>
+      <c r="F264" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>281</v>
       </c>
-      <c r="B263" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="B265" t="s">
+        <v>84</v>
+      </c>
+      <c r="F265" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>282</v>
       </c>
-      <c r="B264" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="B266" t="s">
+        <v>84</v>
+      </c>
+      <c r="F266" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>283</v>
       </c>
-      <c r="B265" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="B267" t="s">
+        <v>84</v>
+      </c>
+      <c r="F267" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>284</v>
       </c>
-      <c r="B266" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="B268" t="s">
+        <v>84</v>
+      </c>
+      <c r="F268" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>285</v>
       </c>
-      <c r="B267" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="B269" t="s">
+        <v>84</v>
+      </c>
+      <c r="F269" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>286</v>
       </c>
-      <c r="B268" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="B270" t="s">
+        <v>84</v>
+      </c>
+      <c r="F270" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>287</v>
       </c>
-      <c r="B269" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="B271" t="s">
+        <v>84</v>
+      </c>
+      <c r="F271" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>288</v>
       </c>
-      <c r="B270" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="B272" t="s">
+        <v>84</v>
+      </c>
+      <c r="F272" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>289</v>
       </c>
-      <c r="B271" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="B273" t="s">
+        <v>84</v>
+      </c>
+      <c r="F273" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>290</v>
       </c>
-      <c r="B272" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="B274" t="s">
+        <v>84</v>
+      </c>
+      <c r="F274" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>291</v>
       </c>
-      <c r="B273" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="B275" t="s">
+        <v>84</v>
+      </c>
+      <c r="F275" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>292</v>
       </c>
-      <c r="B274" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="B276" t="s">
+        <v>84</v>
+      </c>
+      <c r="F276" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>293</v>
       </c>
-      <c r="B275" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="B277" t="s">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>294</v>
       </c>
-      <c r="B276" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="B278" t="s">
+        <v>84</v>
+      </c>
+      <c r="F278" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>295</v>
       </c>
-      <c r="B277" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="B279" t="s">
         <v>296</v>
       </c>
-      <c r="B278" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="F279" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>297</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
+        <v>296</v>
+      </c>
+      <c r="F280" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="B281" t="s">
+        <v>176</v>
+      </c>
+      <c r="F281" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>299</v>
       </c>
-      <c r="B280" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="B282" t="s">
+        <v>176</v>
+      </c>
+      <c r="F282" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>300</v>
       </c>
-      <c r="B281" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="B283" t="s">
+        <v>176</v>
+      </c>
+      <c r="F283" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>301</v>
       </c>
-      <c r="B282" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="B284" t="s">
+        <v>176</v>
+      </c>
+      <c r="F284" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>302</v>
       </c>
-      <c r="B283" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="B285" t="s">
+        <v>176</v>
+      </c>
+      <c r="F285" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>303</v>
       </c>
-      <c r="B284" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="B286" t="s">
+        <v>176</v>
+      </c>
+      <c r="F286" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>304</v>
       </c>
-      <c r="B285" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="B287" t="s">
+        <v>176</v>
+      </c>
+      <c r="F287" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>305</v>
       </c>
-      <c r="B286" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="B288" t="s">
+        <v>176</v>
+      </c>
+      <c r="F288" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>306</v>
       </c>
-      <c r="B287" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="B289" t="s">
+        <v>176</v>
+      </c>
+      <c r="F289" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>307</v>
       </c>
-      <c r="B288" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="B290" t="s">
+        <v>176</v>
+      </c>
+      <c r="F290" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>308</v>
       </c>
-      <c r="B289" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="B291" t="s">
+        <v>176</v>
+      </c>
+      <c r="F291" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>309</v>
       </c>
-      <c r="B290" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="B292" t="s">
+        <v>176</v>
+      </c>
+      <c r="F292" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>310</v>
       </c>
-      <c r="B291" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="B293" t="s">
+        <v>176</v>
+      </c>
+      <c r="F293" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>311</v>
       </c>
-      <c r="B292" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="B294" t="s">
+        <v>176</v>
+      </c>
+      <c r="F294" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>312</v>
       </c>
-      <c r="B293" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="B295" t="s">
+        <v>176</v>
+      </c>
+      <c r="F295" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>313</v>
       </c>
-      <c r="B294" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="B296" t="s">
+        <v>176</v>
+      </c>
+      <c r="F296" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>314</v>
       </c>
-      <c r="B295" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="B297" t="s">
+        <v>176</v>
+      </c>
+      <c r="F297" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>315</v>
       </c>
-      <c r="B296" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="B298" t="s">
+        <v>176</v>
+      </c>
+      <c r="F298" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>316</v>
       </c>
-      <c r="B297" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="B299" t="s">
+        <v>176</v>
+      </c>
+      <c r="F299" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>317</v>
       </c>
-      <c r="B298" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="B300" t="s">
+        <v>176</v>
+      </c>
+      <c r="F300" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>318</v>
       </c>
-      <c r="B299" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="B301" t="s">
+        <v>176</v>
+      </c>
+      <c r="F301" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>319</v>
       </c>
-      <c r="B300" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="B302" t="s">
+        <v>176</v>
+      </c>
+      <c r="F302" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>320</v>
       </c>
-      <c r="B301" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="B303" t="s">
+        <v>176</v>
+      </c>
+      <c r="F303" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>321</v>
       </c>
-      <c r="B302" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="B304" t="s">
+        <v>176</v>
+      </c>
+      <c r="F304" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>322</v>
       </c>
-      <c r="B303" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="B305" t="s">
+        <v>176</v>
+      </c>
+      <c r="F305" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>323</v>
       </c>
-      <c r="B304" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="B306" t="s">
+        <v>176</v>
+      </c>
+      <c r="F306" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>324</v>
       </c>
-      <c r="B305" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="B307" t="s">
+        <v>176</v>
+      </c>
+      <c r="F307" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>325</v>
       </c>
-      <c r="B306" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="B308" t="s">
+        <v>176</v>
+      </c>
+      <c r="F308" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>326</v>
       </c>
-      <c r="B307" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="B309" t="s">
+        <v>176</v>
+      </c>
+      <c r="F309" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>327</v>
       </c>
-      <c r="B308" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="B310" t="s">
+        <v>176</v>
+      </c>
+      <c r="F310" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>328</v>
       </c>
-      <c r="B309" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="B311" t="s">
+        <v>176</v>
+      </c>
+      <c r="F311" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>329</v>
       </c>
-      <c r="B310" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B312" t="s">
+        <v>176</v>
+      </c>
+      <c r="F312" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>330</v>
       </c>
-      <c r="B311" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="B313" t="s">
+        <v>176</v>
+      </c>
+      <c r="F313" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>331</v>
       </c>
-      <c r="B312" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="B314" t="s">
+        <v>176</v>
+      </c>
+      <c r="F314" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>332</v>
       </c>
-      <c r="B313" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="B315" t="s">
+        <v>176</v>
+      </c>
+      <c r="F315" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>333</v>
       </c>
-      <c r="B314" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="B316" t="s">
+        <v>176</v>
+      </c>
+      <c r="F316" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>334</v>
       </c>
-      <c r="B315" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="B317" t="s">
+        <v>176</v>
+      </c>
+      <c r="F317" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>335</v>
       </c>
-      <c r="B316" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="B318" t="s">
+        <v>176</v>
+      </c>
+      <c r="F318" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>336</v>
       </c>
-      <c r="B317" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="B319" t="s">
+        <v>176</v>
+      </c>
+      <c r="F319" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>337</v>
       </c>
-      <c r="B318" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="B320" t="s">
+        <v>176</v>
+      </c>
+      <c r="F320" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>338</v>
       </c>
-      <c r="B319" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="B321" t="s">
+        <v>176</v>
+      </c>
+      <c r="F321" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>339</v>
       </c>
-      <c r="B320" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="B322" t="s">
+        <v>176</v>
+      </c>
+      <c r="F322" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>340</v>
       </c>
-      <c r="B321" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="B323" t="s">
+        <v>176</v>
+      </c>
+      <c r="F323" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>341</v>
       </c>
-      <c r="B322" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="B324" t="s">
+        <v>176</v>
+      </c>
+      <c r="F324" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>342</v>
       </c>
-      <c r="B323" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="B325" t="s">
+        <v>176</v>
+      </c>
+      <c r="F325" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>343</v>
       </c>
-      <c r="B324" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="B326" t="s">
+        <v>176</v>
+      </c>
+      <c r="F326" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>344</v>
       </c>
-      <c r="B325" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="B327" t="s">
+        <v>176</v>
+      </c>
+      <c r="F327" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>345</v>
       </c>
-      <c r="B326" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="B328" t="s">
+        <v>176</v>
+      </c>
+      <c r="F328" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>346</v>
       </c>
-      <c r="B327" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="B329" t="s">
+        <v>176</v>
+      </c>
+      <c r="F329" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>347</v>
       </c>
-      <c r="B328" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="B330" t="s">
+        <v>176</v>
+      </c>
+      <c r="F330" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>348</v>
       </c>
-      <c r="B329" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="B331" t="s">
+        <v>176</v>
+      </c>
+      <c r="F331" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>349</v>
       </c>
-      <c r="B330" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="B332" t="s">
+        <v>176</v>
+      </c>
+      <c r="F332" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>350</v>
       </c>
-      <c r="B331" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="B333" t="s">
+        <v>176</v>
+      </c>
+      <c r="F333" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>351</v>
       </c>
-      <c r="B332" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="B334" t="s">
+        <v>176</v>
+      </c>
+      <c r="F334" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>352</v>
       </c>
-      <c r="B333" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="B335" t="s">
+        <v>176</v>
+      </c>
+      <c r="F335" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>353</v>
       </c>
-      <c r="B334" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="B336" t="s">
+        <v>176</v>
+      </c>
+      <c r="F336" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>354</v>
       </c>
-      <c r="B335" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="B337" t="s">
+        <v>176</v>
+      </c>
+      <c r="F337" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>355</v>
       </c>
-      <c r="B336" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="B338" t="s">
+        <v>176</v>
+      </c>
+      <c r="F338" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>356</v>
       </c>
-      <c r="B337" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="B339" t="s">
+        <v>176</v>
+      </c>
+      <c r="F339" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>357</v>
       </c>
-      <c r="B338" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="B340" t="s">
+        <v>176</v>
+      </c>
+      <c r="F340" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>358</v>
       </c>
-      <c r="B339" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="B341" t="s">
+        <v>176</v>
+      </c>
+      <c r="F341" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>359</v>
       </c>
-      <c r="B340" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="B342" t="s">
+        <v>176</v>
+      </c>
+      <c r="F342" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>360</v>
       </c>
-      <c r="B341" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="B343" t="s">
+        <v>176</v>
+      </c>
+      <c r="F343" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>361</v>
       </c>
-      <c r="B342" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="B344" t="s">
+        <v>176</v>
+      </c>
+      <c r="F344" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>362</v>
       </c>
-      <c r="B343" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="B345" t="s">
+        <v>176</v>
+      </c>
+      <c r="F345" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>363</v>
       </c>
-      <c r="B344" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="B346" t="s">
+        <v>176</v>
+      </c>
+      <c r="F346" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>364</v>
       </c>
-      <c r="B345" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="B347" t="s">
+        <v>176</v>
+      </c>
+      <c r="F347" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>365</v>
       </c>
-      <c r="B346" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="B348" t="s">
+        <v>176</v>
+      </c>
+      <c r="F348" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>366</v>
       </c>
-      <c r="B347" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="B349" t="s">
+        <v>176</v>
+      </c>
+      <c r="F349" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>367</v>
       </c>
-      <c r="B348" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="B350" t="s">
+        <v>176</v>
+      </c>
+      <c r="F350" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>368</v>
       </c>
-      <c r="B349" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="B351" t="s">
+        <v>176</v>
+      </c>
+      <c r="F351" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>369</v>
       </c>
-      <c r="B350" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="B352" t="s">
+        <v>176</v>
+      </c>
+      <c r="F352" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>370</v>
       </c>
-      <c r="B351" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="B353" t="s">
+        <v>176</v>
+      </c>
+      <c r="F353" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>371</v>
       </c>
-      <c r="B352" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="B354" t="s">
+        <v>176</v>
+      </c>
+      <c r="F354" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>372</v>
       </c>
-      <c r="B353" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="B355" t="s">
+        <v>176</v>
+      </c>
+      <c r="F355" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>373</v>
       </c>
-      <c r="B354" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="B356" t="s">
+        <v>176</v>
+      </c>
+      <c r="F356" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>374</v>
       </c>
-      <c r="B355" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="B357" t="s">
+        <v>176</v>
+      </c>
+      <c r="F357" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>375</v>
       </c>
-      <c r="B356" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="B358" t="s">
+        <v>176</v>
+      </c>
+      <c r="F358" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>376</v>
       </c>
-      <c r="B357" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="B359" t="s">
         <v>377</v>
       </c>
-      <c r="B358" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>378</v>
-      </c>
-      <c r="B359" t="s">
-        <v>379</v>
+      <c r="F359" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/kiv/data.xlsx
+++ b/data/kiv/data.xlsx
@@ -1196,9 +1196,6 @@
     <t>Přemysl Brada, Jaroslav Bauml</t>
   </si>
   <si>
-    <t>Přemysl Brada, Kaiml Jažek, Petr Štěpán</t>
-  </si>
-  <si>
     <t>University of West Bohemia, Department of Computer Science and Engineering, Univerzitní 22, 30614, Plzeň, Czech Republic; School of Computer Science, The University of Manchester Manchester M139PL, United Kingdom</t>
   </si>
   <si>
@@ -1302,6 +1299,9 @@
   </si>
   <si>
     <t>Premek Brada, Sangita De, Juergen Mottok, Michael Niklas</t>
+  </si>
+  <si>
+    <t>Přemysl Brada, Kamil Ježek, Petr Štěpán</t>
   </si>
 </sst>
 </file>
@@ -2314,11 +2314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166524800"/>
-        <c:axId val="166523264"/>
+        <c:axId val="202028544"/>
+        <c:axId val="202030080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166524800"/>
+        <c:axId val="202028544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,12 +2328,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166523264"/>
+        <c:crossAx val="202030080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166523264"/>
+        <c:axId val="202030080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166524800"/>
+        <c:crossAx val="202028544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2370,16 +2370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5516880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8313420</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,7 +3053,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3113,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -3133,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -3153,7 +3153,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -3173,7 +3173,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -3193,7 +3193,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3233,7 +3233,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -3253,7 +3253,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3273,7 +3273,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -3293,7 +3293,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -3373,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3393,7 +3393,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -3413,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -3433,7 +3433,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -3453,7 +3453,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -3473,7 +3473,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C40">
         <v>77</v>
@@ -3505,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3513,7 +3513,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41">
         <v>61</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -3553,7 +3553,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C43">
         <v>13</v>
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3573,7 +3573,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3613,7 +3613,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C46">
         <v>14</v>
@@ -3633,7 +3633,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -3665,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3673,7 +3673,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -3693,7 +3693,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3713,7 +3713,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3725,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3753,7 +3753,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -3773,7 +3773,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3833,7 +3833,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3873,7 +3873,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
